--- a/medicine/Médecine vétérinaire/Robert_Denis/Robert_Denis.xlsx
+++ b/medicine/Médecine vétérinaire/Robert_Denis/Robert_Denis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Denis, né le 19 mars 1940 à Butgenbach, est un homme politique belge wallon, membre du MR.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Denis est docteur en médecine vétérinaire, licencié en hygiène et technologie des denrées alimentaires d'origine animale, ancien inspecteur général de l'Institut d'expertise vétérinaire[1].
-Il est lieutenant-colonel de réserve[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Denis est docteur en médecine vétérinaire, licencié en hygiène et technologie des denrées alimentaires d'origine animale, ancien inspecteur général de l'Institut d'expertise vétérinaire.
+Il est lieutenant-colonel de réserve.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Fonctions politiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Député fédéral du 21 mai 1995 au 2 mai 2007.
-Ancien vice-président de la Chambre[1].
-Ancien conseiller provincial (province de Liège)[1].
-Ancien bourgmestre de Malmedy[1].</t>
+Ancien vice-président de la Chambre.
+Ancien conseiller provincial (province de Liège).
+Ancien bourgmestre de Malmedy.</t>
         </is>
       </c>
     </row>
@@ -576,10 +592,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Officier de l'Ordre de la Couronne[1].
-Commandeur de l'Ordre de Léopold II[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Officier de l'Ordre de la Couronne.
+Commandeur de l'Ordre de Léopold II.</t>
         </is>
       </c>
     </row>
